--- a/docs/LTA1_C/LTA1_C_12.11.2024_output.xlsx
+++ b/docs/LTA1_C/LTA1_C_12.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731790998.6892877</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731791009.570792</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790998.6892877.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731791009.570792.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>136.34</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>135.46</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.8799999999999955</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.65</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731791010.1891744</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731791011.8369691</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731791010.1891744.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731791011.8369691.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>7027.5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7016.5</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>11</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -643,95 +671,107 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731791013.4760551</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731791013.4760551.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731791013.4760551.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>7000</v>
       </c>
-      <c r="J5" t="n">
-        <v>7000</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>7006.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731791021.780742</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731791027.0378485</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731791021.780742.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731791027.0378485.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>489.9</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>490</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.1000000000000227</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -739,95 +779,107 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731791027.8894098</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731791027.8894098.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731791027.8894098.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>489.05</v>
       </c>
-      <c r="J7" t="n">
-        <v>489.05</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>484.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-4.550000000000011</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731791033.0518816</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731791036.747468</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731791033.0518816.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731791036.747468.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>942.4</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>940.4</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>2</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -835,95 +887,107 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731791038.4986496</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731791038.4986496.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731791038.4986496.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>938</v>
       </c>
-      <c r="J9" t="n">
-        <v>938</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>935.8</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-2.200000000000045</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731791042.8823497</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731791048.4360282</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731791042.8823497.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731791048.4360282.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>37.915</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>38.015</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.1000000000000014</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -931,51 +995,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731791048.57137</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731791052.5117998</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731791048.57137.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731791052.5117998.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>38.13</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>38.04</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.09000000000000341</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -983,95 +1053,107 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731791053.6927242</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731791053.6927242.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731791053.6927242.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>38.175</v>
       </c>
-      <c r="J12" t="n">
-        <v>38.175</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>38.065</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.1099999999999994</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731791053.9083164</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731791064.3485615</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731791053.9083164.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731791064.3485615.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>1241.6</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>1238.6</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-3</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -1079,51 +1161,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731791064.769738</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731791065.7863503</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731791064.769738.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731791065.7863503.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>80.86</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>81.18000000000001</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.3200000000000074</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -1131,51 +1219,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731791068.921709</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731791074.9732578</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731791068.921709.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731791074.9732578.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>80.81999999999999</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>80.67</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.1499999999999915</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -1183,95 +1277,107 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731791075.2018301</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731791075.2018301.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731791075.2018301.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>80.95</v>
       </c>
-      <c r="J16" t="n">
-        <v>80.95</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>80.95999999999999</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.009999999999990905</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731791079.7704318</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731791080.1981056</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731791079.7704318.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731791080.1981056.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>14.436</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>14.46</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.02400000000000091</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1279,51 +1385,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731791080.42846</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731791080.8535433</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731791080.42846.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731791080.8535433.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>14.535</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>14.443</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.09200000000000053</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.63</v>
       </c>
     </row>
@@ -1331,95 +1443,107 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731791082.4875329</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731791082.4875329.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731791082.4875329.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>14.409</v>
       </c>
-      <c r="J19" t="n">
-        <v>14.409</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>14.399</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.01000000000000156</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731791086.8892157</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731791089.75771</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731791086.8892157.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731791089.75771.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>106.58</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>107.09</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.5100000000000051</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -1427,51 +1551,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731791091.209682</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731791091.3137958</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731791091.209682.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731791091.3137958.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>106.68</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>106.95</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.269999999999996</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1479,51 +1609,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731791092.0049293</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731791096.937233</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731791092.0049293.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731791096.937233.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>106.4</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>106.4</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1531,51 +1667,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731791097.135439</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731791101.1787915</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731791097.135439.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731791101.1787915.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>348.77</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>351</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>2.230000000000018</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.64</v>
       </c>
     </row>
@@ -1583,95 +1725,107 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731791101.9755077</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731791101.9755077.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731791101.9755077.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>349.13</v>
       </c>
-      <c r="J24" t="n">
-        <v>349.13</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>347.25</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-1.879999999999995</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731791108.4947891</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731791108.9266825</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791108.4947891.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791108.9266825.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>2785.65</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>2797.2</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>11.54999999999973</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -1679,51 +1833,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731791111.5311935</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731791118.968486</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791111.5311935.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791118.968486.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>2784.05</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>2781</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-3.050000000000182</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -1731,51 +1891,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731791119.4604073</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731791121.8233533</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/TATN1731791119.4604073.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/TATN1731791121.8233533.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>596.5</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>593.7</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>2.799999999999955</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -1783,51 +1949,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731791122.2614005</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731791125.4567301</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/TATN1731791122.2614005.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/TATN1731791125.4567301.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>590.9</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>594.9</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>4</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.6799999999999999</v>
       </c>
     </row>
@@ -1835,44 +2007,50 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731791128.7045352</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731791128.7045352.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731791128.7045352.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>591</v>
       </c>
-      <c r="J29" t="n">
-        <v>591</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>588.8</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-2.200000000000045</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.37</v>
       </c>
     </row>
   </sheetData>
@@ -1933,19 +2111,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1160000000000014</v>
+        <v>0.1059999999999999</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03866666666666715</v>
+        <v>0.03533333333333329</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="F2" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
@@ -1955,19 +2133,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1900000000000048</v>
+        <v>0.3000000000000043</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06333333333333495</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0.79</v>
       </c>
       <c r="F3" t="n">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4">
@@ -1999,19 +2177,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.799999999999955</v>
+        <v>4.599999999999909</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2.266666666666652</v>
+        <v>1.533333333333303</v>
       </c>
       <c r="E5" t="n">
-        <v>1.15</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.38</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="6">
@@ -2021,16 +2199,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1700000000000159</v>
+        <v>0.160000000000025</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05666666666667197</v>
+        <v>0.05333333333334167</v>
       </c>
       <c r="E6" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="F6" t="n">
         <v>0.07000000000000001</v>
@@ -2043,19 +2221,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.230000000000018</v>
+        <v>0.3500000000000227</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1.115000000000009</v>
+        <v>0.1750000000000114</v>
       </c>
       <c r="E7" t="n">
-        <v>0.64</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="F7" t="n">
-        <v>0.32</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8">
@@ -2065,19 +2243,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>5.5</v>
+        <v>8.75</v>
       </c>
       <c r="E8" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="9">
@@ -2109,19 +2287,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>-0.2000000000000455</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>-0.1000000000000227</v>
       </c>
       <c r="E10" t="n">
-        <v>0.21</v>
+        <v>-0.01999999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="11">
@@ -2131,19 +2309,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1000000000000227</v>
+        <v>-4.650000000000034</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.05000000000001137</v>
+        <v>-2.325000000000017</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.02</v>
+        <v>-0.95</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="12">
